--- a/generated.xlsx
+++ b/generated.xlsx
@@ -23,10 +23,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>DIAS</t>
+  </si>
+  <si>
+    <t>DOOR</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -42,7 +61,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -265,11 +284,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -289,6 +334,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,167 +641,279 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B11:N21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="9"/>
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="6"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="6"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="6"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="9"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;G</oddHeader>
+    <oddFooter>&amp;LDepartment of Computer Science &amp; Engineering&amp;RSeating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
--- a/generated.xlsx
+++ b/generated.xlsx
@@ -1,61 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandesh\Documents\CSE\Projects\ismgen\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Template" sheetId="1" r:id="rId1"/>
+    <s:sheet name="200" sheetId="2" r:id="rId2"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+  <si>
+    <t>DOOR</t>
+  </si>
   <si>
     <t>DIAS</t>
   </si>
   <si>
-    <t>DOOR</t>
+    <t>1PE11CS200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -312,66 +307,58 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="16" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -637,8 +624,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O22"/>
@@ -647,273 +635,190 @@
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15.75" r="1" s="5" spans="1:15">
       <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="2" s="5" spans="1:15">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="6"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="6"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="9"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-    </row>
+      <c r="G3" s="22" t="n"/>
+      <c r="H3" s="23" t="n"/>
+      <c r="M3" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="4" s="5" spans="1:15">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="24" t="n"/>
+      <c r="G4" s="25" t="n"/>
+      <c r="H4" s="26" t="n"/>
+      <c r="M4" s="6" t="n"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="6" s="5" spans="1:15">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="6" t="n"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="11" t="n"/>
+      <c r="C7" s="12" t="n"/>
+      <c r="D7" s="13" t="n"/>
+      <c r="F7" s="11" t="n"/>
+      <c r="G7" s="12" t="n"/>
+      <c r="H7" s="13" t="n"/>
+      <c r="J7" s="11" t="n"/>
+      <c r="K7" s="12" t="n"/>
+      <c r="L7" s="13" t="n"/>
+      <c r="M7" s="6" t="n"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="14" t="n"/>
+      <c r="C8" s="10" t="n"/>
+      <c r="D8" s="15" t="n"/>
+      <c r="F8" s="14" t="n"/>
+      <c r="G8" s="10" t="n"/>
+      <c r="H8" s="15" t="n"/>
+      <c r="J8" s="14" t="n"/>
+      <c r="K8" s="10" t="n"/>
+      <c r="L8" s="15" t="n"/>
+      <c r="M8" s="6" t="n"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="14" t="n"/>
+      <c r="C9" s="10" t="n"/>
+      <c r="D9" s="15" t="n"/>
+      <c r="F9" s="14" t="n"/>
+      <c r="G9" s="10" t="n"/>
+      <c r="H9" s="15" t="n"/>
+      <c r="J9" s="14" t="n"/>
+      <c r="K9" s="10" t="n"/>
+      <c r="L9" s="15" t="n"/>
+      <c r="M9" s="6" t="n"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="14" t="n"/>
+      <c r="C10" s="10" t="n"/>
+      <c r="D10" s="15" t="n"/>
+      <c r="F10" s="14" t="n"/>
+      <c r="G10" s="10" t="n"/>
+      <c r="H10" s="15" t="n"/>
+      <c r="J10" s="14" t="n"/>
+      <c r="K10" s="10" t="n"/>
+      <c r="L10" s="15" t="n"/>
+      <c r="M10" s="6" t="n"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="14" t="n"/>
+      <c r="C11" s="10" t="n"/>
+      <c r="D11" s="15" t="n"/>
+      <c r="F11" s="14" t="n"/>
+      <c r="G11" s="10" t="n"/>
+      <c r="H11" s="15" t="n"/>
+      <c r="J11" s="14" t="n"/>
+      <c r="K11" s="10" t="n"/>
+      <c r="L11" s="15" t="n"/>
+      <c r="M11" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="12" s="5" spans="1:15">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="16" t="n"/>
+      <c r="C12" s="17" t="n"/>
+      <c r="D12" s="18" t="n"/>
+      <c r="F12" s="16" t="n"/>
+      <c r="G12" s="17" t="n"/>
+      <c r="H12" s="18" t="n"/>
+      <c r="J12" s="16" t="n"/>
+      <c r="K12" s="17" t="n"/>
+      <c r="L12" s="18" t="n"/>
+      <c r="M12" s="6" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="13" s="5" spans="1:15">
+      <c r="A13" s="7" t="n"/>
+      <c r="B13" s="8" t="n"/>
+      <c r="C13" s="8" t="n"/>
+      <c r="D13" s="8" t="n"/>
+      <c r="E13" s="8" t="n"/>
+      <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
+      <c r="H13" s="8" t="n"/>
+      <c r="I13" s="8" t="n"/>
+      <c r="J13" s="8" t="n"/>
+      <c r="K13" s="8" t="n"/>
+      <c r="L13" s="8" t="n"/>
+      <c r="M13" s="9" t="n"/>
+    </row>
+    <row r="14" spans="1:15"/>
+    <row r="15" spans="1:15"/>
+    <row r="16" spans="1:15"/>
+    <row r="17" spans="1:15"/>
+    <row r="18" spans="1:15"/>
+    <row r="19" spans="1:15"/>
+    <row r="20" spans="1:15"/>
+    <row r="21" spans="1:15"/>
+    <row r="22" spans="1:15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F3:H4"/>
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="1200" orientation="landscape" paperSize="9" verticalDpi="1200"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;G</oddHeader>
-    <oddFooter>&amp;LDepartment of Computer Science &amp; Engineering&amp;RSeating arrangement generated by ISMGen.</oddFooter>
+    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;K000000&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B7:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/generated.xlsx
+++ b/generated.xlsx
@@ -8,6 +8,14 @@
   <s:sheets>
     <s:sheet name="Template" sheetId="1" r:id="rId1"/>
     <s:sheet name="200" sheetId="2" r:id="rId2"/>
+    <s:sheet name="2001" sheetId="3" r:id="rId3"/>
+    <s:sheet name="2002" sheetId="4" r:id="rId4"/>
+    <s:sheet name="2003" sheetId="5" r:id="rId5"/>
+    <s:sheet name="2004" sheetId="6" r:id="rId6"/>
+    <s:sheet name="2005" sheetId="7" r:id="rId7"/>
+    <s:sheet name="2006" sheetId="8" r:id="rId8"/>
+    <s:sheet name="2007" sheetId="9" r:id="rId9"/>
+    <s:sheet name="2008" sheetId="10" r:id="rId10"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -629,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
@@ -637,13 +645,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row customHeight="1" ht="15.75" r="1" s="5" spans="1:15">
+    <row customHeight="1" ht="15.75" r="1" s="5" spans="1:13">
       <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="20" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="2" s="5" spans="1:15">
+    <row customHeight="1" ht="15.75" r="2" s="5" spans="1:13">
       <c r="A2" s="1" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="2" t="n"/>
@@ -658,7 +666,7 @@
       <c r="L2" s="2" t="n"/>
       <c r="M2" s="3" t="n"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:13">
       <c r="A3" s="4" t="n"/>
       <c r="F3" s="21" t="s">
         <v>1</v>
@@ -667,22 +675,22 @@
       <c r="H3" s="23" t="n"/>
       <c r="M3" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="4" s="5" spans="1:15">
+    <row customHeight="1" ht="15.75" r="4" s="5" spans="1:13">
       <c r="A4" s="4" t="n"/>
       <c r="F4" s="24" t="n"/>
       <c r="G4" s="25" t="n"/>
       <c r="H4" s="26" t="n"/>
       <c r="M4" s="6" t="n"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:13">
       <c r="A5" s="4" t="n"/>
       <c r="M5" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="6" s="5" spans="1:15">
+    <row customHeight="1" ht="15.75" r="6" s="5" spans="1:13">
       <c r="A6" s="4" t="n"/>
       <c r="M6" s="6" t="n"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:13">
       <c r="A7" s="4" t="n"/>
       <c r="B7" s="11" t="n"/>
       <c r="C7" s="12" t="n"/>
@@ -695,7 +703,7 @@
       <c r="L7" s="13" t="n"/>
       <c r="M7" s="6" t="n"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:13">
       <c r="A8" s="4" t="n"/>
       <c r="B8" s="14" t="n"/>
       <c r="C8" s="10" t="n"/>
@@ -708,7 +716,7 @@
       <c r="L8" s="15" t="n"/>
       <c r="M8" s="6" t="n"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:13">
       <c r="A9" s="4" t="n"/>
       <c r="B9" s="14" t="n"/>
       <c r="C9" s="10" t="n"/>
@@ -721,7 +729,7 @@
       <c r="L9" s="15" t="n"/>
       <c r="M9" s="6" t="n"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:13">
       <c r="A10" s="4" t="n"/>
       <c r="B10" s="14" t="n"/>
       <c r="C10" s="10" t="n"/>
@@ -734,7 +742,7 @@
       <c r="L10" s="15" t="n"/>
       <c r="M10" s="6" t="n"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:13">
       <c r="A11" s="4" t="n"/>
       <c r="B11" s="14" t="n"/>
       <c r="C11" s="10" t="n"/>
@@ -747,7 +755,7 @@
       <c r="L11" s="15" t="n"/>
       <c r="M11" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="12" s="5" spans="1:15">
+    <row customHeight="1" ht="15.75" r="12" s="5" spans="1:13">
       <c r="A12" s="4" t="n"/>
       <c r="B12" s="16" t="n"/>
       <c r="C12" s="17" t="n"/>
@@ -760,7 +768,7 @@
       <c r="L12" s="18" t="n"/>
       <c r="M12" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="13" s="5" spans="1:15">
+    <row customHeight="1" ht="15.75" r="13" s="5" spans="1:13">
       <c r="A13" s="7" t="n"/>
       <c r="B13" s="8" t="n"/>
       <c r="C13" s="8" t="n"/>
@@ -775,15 +783,6 @@
       <c r="L13" s="8" t="n"/>
       <c r="M13" s="9" t="n"/>
     </row>
-    <row r="14" spans="1:15"/>
-    <row r="15" spans="1:15"/>
-    <row r="16" spans="1:15"/>
-    <row r="17" spans="1:15"/>
-    <row r="18" spans="1:15"/>
-    <row r="19" spans="1:15"/>
-    <row r="20" spans="1:15"/>
-    <row r="21" spans="1:15"/>
-    <row r="22" spans="1:15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F3:H4"/>
@@ -796,6 +795,54 @@
     <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;K000000&amp;G</oddHeader>
     <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13"/>
+    <row r="3" spans="1:13">
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13"/>
+    <row r="5" spans="1:13"/>
+    <row r="6" spans="1:13"/>
+    <row r="7" spans="1:13">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13"/>
+    <row r="9" spans="1:13"/>
+    <row r="10" spans="1:13"/>
+    <row r="11" spans="1:13"/>
+    <row r="12" spans="1:13"/>
+    <row r="13" spans="1:13"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -819,6 +866,195 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B7:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B7:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B7:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B7:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B7:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B7:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/generated.xlsx
+++ b/generated.xlsx
@@ -1,64 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr codeName="ThisWorkbook"/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Template" sheetId="1" r:id="rId1"/>
-    <s:sheet name="200" sheetId="2" r:id="rId2"/>
-    <s:sheet name="2001" sheetId="3" r:id="rId3"/>
-    <s:sheet name="2002" sheetId="4" r:id="rId4"/>
-    <s:sheet name="2003" sheetId="5" r:id="rId5"/>
-    <s:sheet name="2004" sheetId="6" r:id="rId6"/>
-    <s:sheet name="2005" sheetId="7" r:id="rId7"/>
-    <s:sheet name="2006" sheetId="8" r:id="rId8"/>
-    <s:sheet name="2007" sheetId="9" r:id="rId9"/>
-    <s:sheet name="2008" sheetId="10" r:id="rId10"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandesh\Documents\CSE\Projects\ismgen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>DOOR</t>
   </si>
   <si>
     <t>DIAS</t>
   </si>
-  <si>
-    <t>1PE11CS200</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -315,58 +307,65 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="16" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0">
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -632,156 +631,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row customHeight="1" ht="15.75" r="1" s="5" spans="1:13">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="2" s="5" spans="1:13">
-      <c r="A2" s="1" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="n"/>
-      <c r="M2" s="3" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="n"/>
-      <c r="F3" s="21" t="s">
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="22" t="n"/>
-      <c r="H3" s="23" t="n"/>
-      <c r="M3" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="4" s="5" spans="1:13">
-      <c r="A4" s="4" t="n"/>
-      <c r="F4" s="24" t="n"/>
-      <c r="G4" s="25" t="n"/>
-      <c r="H4" s="26" t="n"/>
-      <c r="M4" s="6" t="n"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="4" t="n"/>
-      <c r="M5" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="6" s="5" spans="1:13">
-      <c r="A6" s="4" t="n"/>
-      <c r="M6" s="6" t="n"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="4" t="n"/>
-      <c r="B7" s="11" t="n"/>
-      <c r="C7" s="12" t="n"/>
-      <c r="D7" s="13" t="n"/>
-      <c r="F7" s="11" t="n"/>
-      <c r="G7" s="12" t="n"/>
-      <c r="H7" s="13" t="n"/>
-      <c r="J7" s="11" t="n"/>
-      <c r="K7" s="12" t="n"/>
-      <c r="L7" s="13" t="n"/>
-      <c r="M7" s="6" t="n"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="4" t="n"/>
-      <c r="B8" s="14" t="n"/>
-      <c r="C8" s="10" t="n"/>
-      <c r="D8" s="15" t="n"/>
-      <c r="F8" s="14" t="n"/>
-      <c r="G8" s="10" t="n"/>
-      <c r="H8" s="15" t="n"/>
-      <c r="J8" s="14" t="n"/>
-      <c r="K8" s="10" t="n"/>
-      <c r="L8" s="15" t="n"/>
-      <c r="M8" s="6" t="n"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="14" t="n"/>
-      <c r="C9" s="10" t="n"/>
-      <c r="D9" s="15" t="n"/>
-      <c r="F9" s="14" t="n"/>
-      <c r="G9" s="10" t="n"/>
-      <c r="H9" s="15" t="n"/>
-      <c r="J9" s="14" t="n"/>
-      <c r="K9" s="10" t="n"/>
-      <c r="L9" s="15" t="n"/>
-      <c r="M9" s="6" t="n"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="4" t="n"/>
-      <c r="B10" s="14" t="n"/>
-      <c r="C10" s="10" t="n"/>
-      <c r="D10" s="15" t="n"/>
-      <c r="F10" s="14" t="n"/>
-      <c r="G10" s="10" t="n"/>
-      <c r="H10" s="15" t="n"/>
-      <c r="J10" s="14" t="n"/>
-      <c r="K10" s="10" t="n"/>
-      <c r="L10" s="15" t="n"/>
-      <c r="M10" s="6" t="n"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="4" t="n"/>
-      <c r="B11" s="14" t="n"/>
-      <c r="C11" s="10" t="n"/>
-      <c r="D11" s="15" t="n"/>
-      <c r="F11" s="14" t="n"/>
-      <c r="G11" s="10" t="n"/>
-      <c r="H11" s="15" t="n"/>
-      <c r="J11" s="14" t="n"/>
-      <c r="K11" s="10" t="n"/>
-      <c r="L11" s="15" t="n"/>
-      <c r="M11" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="12" s="5" spans="1:13">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="16" t="n"/>
-      <c r="C12" s="17" t="n"/>
-      <c r="D12" s="18" t="n"/>
-      <c r="F12" s="16" t="n"/>
-      <c r="G12" s="17" t="n"/>
-      <c r="H12" s="18" t="n"/>
-      <c r="J12" s="16" t="n"/>
-      <c r="K12" s="17" t="n"/>
-      <c r="L12" s="18" t="n"/>
-      <c r="M12" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="13" s="5" spans="1:13">
-      <c r="A13" s="7" t="n"/>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
-      <c r="F13" s="8" t="n"/>
-      <c r="G13" s="8" t="n"/>
-      <c r="H13" s="8" t="n"/>
-      <c r="I13" s="8" t="n"/>
-      <c r="J13" s="8" t="n"/>
-      <c r="K13" s="8" t="n"/>
-      <c r="L13" s="8" t="n"/>
-      <c r="M13" s="9" t="n"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="14"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="14"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="14"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="14"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="14"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="14"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="14"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="14"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -789,272 +785,11 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="1200" orientation="landscape" paperSize="9" verticalDpi="1200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;K000000&amp;G</oddHeader>
     <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13"/>
-    <row r="3" spans="1:13">
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13"/>
-    <row r="5" spans="1:13"/>
-    <row r="6" spans="1:13"/>
-    <row r="7" spans="1:13">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13"/>
-    <row r="9" spans="1:13"/>
-    <row r="10" spans="1:13"/>
-    <row r="11" spans="1:13"/>
-    <row r="12" spans="1:13"/>
-    <row r="13" spans="1:13"/>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F3:H4"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B7:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B7:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F3:H4"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B7:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F3:H4"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B7:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F3:H4"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B7:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F3:H4"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B7:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F3:H4"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B7:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F3:H4"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
 </file>
--- a/generated.xlsx
+++ b/generated.xlsx
@@ -1,56 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandesh\Documents\CSE\Projects\ismgen\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Template" sheetId="1" r:id="rId1"/>
+    <s:sheet name="200" sheetId="2" r:id="rId2"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t>DOOR</t>
   </si>
   <si>
     <t>DIAS</t>
   </si>
+  <si>
+    <t>1PE11CS200</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -307,65 +307,57 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="16" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -631,153 +623,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15.75" r="1" spans="1:13">
       <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
       <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="14"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="14"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="14"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="14"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="14"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="14"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="8"/>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="n"/>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -785,11 +780,59 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="1200" orientation="landscape" paperSize="9" verticalDpi="1200"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;K000000&amp;G</oddHeader>
     <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13"/>
+    <row r="3" spans="1:13">
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13"/>
+    <row r="5" spans="1:13"/>
+    <row r="6" spans="1:13"/>
+    <row r="7" spans="1:13">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13"/>
+    <row r="9" spans="1:13"/>
+    <row r="10" spans="1:13"/>
+    <row r="11" spans="1:13"/>
+    <row r="12" spans="1:13"/>
+    <row r="13" spans="1:13"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/generated.xlsx
+++ b/generated.xlsx
@@ -8,6 +8,7 @@
   <s:sheets>
     <s:sheet name="Template" sheetId="1" r:id="rId1"/>
     <s:sheet name="200" sheetId="2" r:id="rId2"/>
+    <s:sheet name="201" sheetId="3" r:id="rId3"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -795,6 +796,44 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -804,30 +843,145 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:13"/>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
     <row r="3" spans="1:13">
-      <c r="F3" t="s">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13"/>
-    <row r="5" spans="1:13"/>
-    <row r="6" spans="1:13"/>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
     <row r="7" spans="1:13">
-      <c r="B7" t="s">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13"/>
-    <row r="9" spans="1:13"/>
-    <row r="10" spans="1:13"/>
-    <row r="11" spans="1:13"/>
-    <row r="12" spans="1:13"/>
-    <row r="13" spans="1:13"/>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>

--- a/generated.xlsx
+++ b/generated.xlsx
@@ -1,57 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr codeName="ThisWorkbook"/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Template" sheetId="1" r:id="rId1"/>
-    <s:sheet name="200" sheetId="2" r:id="rId2"/>
-    <s:sheet name="201" sheetId="3" r:id="rId3"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandesh\Documents\CSE\Projects\ismgen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>DOOR</t>
   </si>
   <si>
     <t>DIAS</t>
   </si>
-  <si>
-    <t>1PE11CS200</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -308,57 +307,65 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="16" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -624,156 +631,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row customHeight="1" ht="15.75" r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="2" spans="1:13">
-      <c r="A2" s="1" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="n"/>
-      <c r="M2" s="3" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="n"/>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="19" t="n"/>
-      <c r="H3" s="20" t="n"/>
-      <c r="M3" s="5" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="4" spans="1:13">
-      <c r="A4" s="4" t="n"/>
-      <c r="F4" s="21" t="n"/>
-      <c r="G4" s="22" t="n"/>
-      <c r="H4" s="23" t="n"/>
-      <c r="M4" s="5" t="n"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="4" t="n"/>
-      <c r="M5" s="5" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="6" spans="1:13">
-      <c r="A6" s="4" t="n"/>
-      <c r="M6" s="5" t="n"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="4" t="n"/>
-      <c r="B7" s="10" t="n"/>
-      <c r="C7" s="11" t="n"/>
-      <c r="D7" s="12" t="n"/>
-      <c r="F7" s="10" t="n"/>
-      <c r="G7" s="11" t="n"/>
-      <c r="H7" s="12" t="n"/>
-      <c r="J7" s="10" t="n"/>
-      <c r="K7" s="11" t="n"/>
-      <c r="L7" s="12" t="n"/>
-      <c r="M7" s="5" t="n"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="4" t="n"/>
-      <c r="B8" s="13" t="n"/>
-      <c r="C8" s="9" t="n"/>
-      <c r="D8" s="14" t="n"/>
-      <c r="F8" s="13" t="n"/>
-      <c r="G8" s="9" t="n"/>
-      <c r="H8" s="14" t="n"/>
-      <c r="J8" s="13" t="n"/>
-      <c r="K8" s="9" t="n"/>
-      <c r="L8" s="14" t="n"/>
-      <c r="M8" s="5" t="n"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="13" t="n"/>
-      <c r="C9" s="9" t="n"/>
-      <c r="D9" s="14" t="n"/>
-      <c r="F9" s="13" t="n"/>
-      <c r="G9" s="9" t="n"/>
-      <c r="H9" s="14" t="n"/>
-      <c r="J9" s="13" t="n"/>
-      <c r="K9" s="9" t="n"/>
-      <c r="L9" s="14" t="n"/>
-      <c r="M9" s="5" t="n"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="4" t="n"/>
-      <c r="B10" s="13" t="n"/>
-      <c r="C10" s="9" t="n"/>
-      <c r="D10" s="14" t="n"/>
-      <c r="F10" s="13" t="n"/>
-      <c r="G10" s="9" t="n"/>
-      <c r="H10" s="14" t="n"/>
-      <c r="J10" s="13" t="n"/>
-      <c r="K10" s="9" t="n"/>
-      <c r="L10" s="14" t="n"/>
-      <c r="M10" s="5" t="n"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="4" t="n"/>
-      <c r="B11" s="13" t="n"/>
-      <c r="C11" s="9" t="n"/>
-      <c r="D11" s="14" t="n"/>
-      <c r="F11" s="13" t="n"/>
-      <c r="G11" s="9" t="n"/>
-      <c r="H11" s="14" t="n"/>
-      <c r="J11" s="13" t="n"/>
-      <c r="K11" s="9" t="n"/>
-      <c r="L11" s="14" t="n"/>
-      <c r="M11" s="5" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="12" spans="1:13">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="15" t="n"/>
-      <c r="C12" s="16" t="n"/>
-      <c r="D12" s="17" t="n"/>
-      <c r="F12" s="15" t="n"/>
-      <c r="G12" s="16" t="n"/>
-      <c r="H12" s="17" t="n"/>
-      <c r="J12" s="15" t="n"/>
-      <c r="K12" s="16" t="n"/>
-      <c r="L12" s="17" t="n"/>
-      <c r="M12" s="5" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="13" spans="1:13">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="7" t="n"/>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-      <c r="K13" s="7" t="n"/>
-      <c r="L13" s="7" t="n"/>
-      <c r="M13" s="8" t="n"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="14"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="14"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="14"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="14"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="14"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="14"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="14"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="14"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -781,212 +785,11 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="1200" orientation="landscape" paperSize="9" verticalDpi="1200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;K000000&amp;G</oddHeader>
     <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F3:H4"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="25" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="n"/>
-      <c r="M2" s="3" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="n"/>
-      <c r="F3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="19" t="n"/>
-      <c r="H3" s="20" t="n"/>
-      <c r="M3" s="5" t="n"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="4" t="n"/>
-      <c r="F4" s="21" t="n"/>
-      <c r="G4" s="22" t="n"/>
-      <c r="H4" s="23" t="n"/>
-      <c r="M4" s="5" t="n"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="4" t="n"/>
-      <c r="M5" s="5" t="n"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="4" t="n"/>
-      <c r="M6" s="5" t="n"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="4" t="n"/>
-      <c r="B7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="11" t="n"/>
-      <c r="D7" s="12" t="n"/>
-      <c r="F7" s="10" t="n"/>
-      <c r="G7" s="11" t="n"/>
-      <c r="H7" s="12" t="n"/>
-      <c r="J7" s="10" t="n"/>
-      <c r="K7" s="11" t="n"/>
-      <c r="L7" s="12" t="n"/>
-      <c r="M7" s="5" t="n"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="4" t="n"/>
-      <c r="B8" s="13" t="n"/>
-      <c r="C8" s="9" t="n"/>
-      <c r="D8" s="14" t="n"/>
-      <c r="F8" s="13" t="n"/>
-      <c r="G8" s="9" t="n"/>
-      <c r="H8" s="14" t="n"/>
-      <c r="J8" s="13" t="n"/>
-      <c r="K8" s="9" t="n"/>
-      <c r="L8" s="14" t="n"/>
-      <c r="M8" s="5" t="n"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="13" t="n"/>
-      <c r="C9" s="9" t="n"/>
-      <c r="D9" s="14" t="n"/>
-      <c r="F9" s="13" t="n"/>
-      <c r="G9" s="9" t="n"/>
-      <c r="H9" s="14" t="n"/>
-      <c r="J9" s="13" t="n"/>
-      <c r="K9" s="9" t="n"/>
-      <c r="L9" s="14" t="n"/>
-      <c r="M9" s="5" t="n"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="4" t="n"/>
-      <c r="B10" s="13" t="n"/>
-      <c r="C10" s="9" t="n"/>
-      <c r="D10" s="14" t="n"/>
-      <c r="F10" s="13" t="n"/>
-      <c r="G10" s="9" t="n"/>
-      <c r="H10" s="14" t="n"/>
-      <c r="J10" s="13" t="n"/>
-      <c r="K10" s="9" t="n"/>
-      <c r="L10" s="14" t="n"/>
-      <c r="M10" s="5" t="n"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="4" t="n"/>
-      <c r="B11" s="13" t="n"/>
-      <c r="C11" s="9" t="n"/>
-      <c r="D11" s="14" t="n"/>
-      <c r="F11" s="13" t="n"/>
-      <c r="G11" s="9" t="n"/>
-      <c r="H11" s="14" t="n"/>
-      <c r="J11" s="13" t="n"/>
-      <c r="K11" s="9" t="n"/>
-      <c r="L11" s="14" t="n"/>
-      <c r="M11" s="5" t="n"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="15" t="n"/>
-      <c r="C12" s="16" t="n"/>
-      <c r="D12" s="17" t="n"/>
-      <c r="F12" s="15" t="n"/>
-      <c r="G12" s="16" t="n"/>
-      <c r="H12" s="17" t="n"/>
-      <c r="J12" s="15" t="n"/>
-      <c r="K12" s="16" t="n"/>
-      <c r="L12" s="17" t="n"/>
-      <c r="M12" s="5" t="n"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="6" t="n"/>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="7" t="n"/>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-      <c r="K13" s="7" t="n"/>
-      <c r="L13" s="7" t="n"/>
-      <c r="M13" s="8" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F3:H4"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
 </file>
--- a/generated.xlsx
+++ b/generated.xlsx
@@ -1,56 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandesh\Documents\CSE\Projects\ismgen\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Template" sheetId="1" r:id="rId1"/>
+    <s:sheet name="200" sheetId="2" r:id="rId2"/>
+    <s:sheet name="201" sheetId="3" r:id="rId3"/>
+    <s:sheet name="202" sheetId="4" r:id="rId4"/>
+    <s:sheet name="203" sheetId="5" r:id="rId5"/>
+    <s:sheet name="204" sheetId="6" r:id="rId6"/>
+    <s:sheet name="206" sheetId="7" r:id="rId7"/>
+    <s:sheet name="300" sheetId="8" r:id="rId8"/>
+    <s:sheet name="301" sheetId="9" r:id="rId9"/>
+    <s:sheet name="302" sheetId="10" r:id="rId10"/>
+    <s:sheet name="303" sheetId="11" r:id="rId11"/>
+    <s:sheet name="304" sheetId="12" r:id="rId12"/>
+    <s:sheet name="306" sheetId="13" r:id="rId13"/>
+    <s:sheet name="400" sheetId="14" r:id="rId14"/>
+    <s:sheet name="401" sheetId="15" r:id="rId15"/>
+    <s:sheet name="402" sheetId="16" r:id="rId16"/>
+    <s:sheet name="403" sheetId="17" r:id="rId17"/>
+    <s:sheet name="404" sheetId="18" r:id="rId18"/>
+    <s:sheet name="406" sheetId="19" r:id="rId19"/>
+    <s:sheet name="500" sheetId="20" r:id="rId20"/>
+    <s:sheet name="501" sheetId="21" r:id="rId21"/>
+    <s:sheet name="502" sheetId="22" r:id="rId22"/>
+    <s:sheet name="503" sheetId="23" r:id="rId23"/>
+    <s:sheet name="504" sheetId="24" r:id="rId24"/>
+    <s:sheet name="506" sheetId="25" r:id="rId25"/>
+    <s:sheet name="600" sheetId="26" r:id="rId26"/>
+    <s:sheet name="601" sheetId="27" r:id="rId27"/>
+    <s:sheet name="602" sheetId="28" r:id="rId28"/>
+    <s:sheet name="603" sheetId="29" r:id="rId29"/>
+    <s:sheet name="604" sheetId="30" r:id="rId30"/>
+    <s:sheet name="606" sheetId="31" r:id="rId31"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t>DOOR</t>
   </si>
   <si>
     <t>DIAS</t>
   </si>
+  <si>
+    <t>1PE11CS200</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -307,65 +336,57 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="16" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -631,153 +652,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15.75" r="1" spans="1:13">
       <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
       <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="14"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="14"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="14"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="14"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="14"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="14"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="8"/>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="n"/>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -785,11 +809,4901 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="1200" orientation="landscape" paperSize="9" verticalDpi="1200"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;K000000&amp;G</oddHeader>
     <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="n"/>
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="20" t="n"/>
+      <c r="M3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="n"/>
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="22" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="12" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="5" t="n"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="5" t="n"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="17" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="17" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="16" t="n"/>
+      <c r="L12" s="17" t="n"/>
+      <c r="M12" s="5" t="n"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>